--- a/output/【河洛話注音】證人得獎感言.xlsx
+++ b/output/【河洛話注音】證人得獎感言.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC768011-E67B-4DA7-AD2B-063BFE242817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9FEDDF-EA41-4FC9-B696-354EF0F23406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21480" windowHeight="11895" firstSheet="1" activeTab="1" xr2:uid="{34E700FC-4C0E-994F-B0CD-4AD13BB7FCE5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{34E700FC-4C0E-994F-B0CD-4AD13BB7FCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="17" r:id="rId1"/>
@@ -2812,9 +2812,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;證&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄥ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -4756,6 +4753,9 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頂&lt;/rb&gt;&lt;rt&gt;ting2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
   </si>
 </sst>
 </file>
@@ -14507,12 +14507,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -14522,12 +14522,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -14537,22 +14537,22 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -14567,27 +14567,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -14597,17 +14597,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -14617,17 +14617,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -14647,52 +14647,52 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -14702,117 +14702,117 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -14827,22 +14827,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -14852,72 +14852,72 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -14937,7 +14937,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -14947,42 +14947,42 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -14992,87 +14992,87 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -15082,32 +15082,32 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -15117,57 +15117,57 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -15182,27 +15182,27 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -15212,17 +15212,17 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -15232,12 +15232,12 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -15247,12 +15247,12 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="151" spans="1:1">
@@ -15262,12 +15262,12 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -15277,42 +15277,42 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -15322,57 +15322,57 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -15387,17 +15387,17 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -15422,22 +15422,22 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -15447,32 +15447,32 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -15482,22 +15482,22 @@
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="200" spans="1:1">
@@ -15507,22 +15507,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -15532,22 +15532,22 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -15557,27 +15557,27 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -15587,57 +15587,57 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="228" spans="1:1">
@@ -15647,42 +15647,42 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -15692,52 +15692,52 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -15747,17 +15747,17 @@
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -15767,47 +15767,47 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="262" spans="1:1">
@@ -15817,67 +15817,67 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="276" spans="1:1">
@@ -15897,32 +15897,32 @@
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -15932,62 +15932,62 @@
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="298" spans="1:1">
@@ -16029,12 +16029,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -16044,12 +16044,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -16059,22 +16059,22 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -16089,27 +16089,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -16119,17 +16119,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -16139,17 +16139,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -16169,37 +16169,37 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -16209,12 +16209,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -16224,117 +16224,117 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -16349,22 +16349,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -16374,72 +16374,72 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -16459,7 +16459,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -16469,42 +16469,42 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -16514,67 +16514,67 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -16584,17 +16584,17 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -16604,32 +16604,32 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -16639,52 +16639,52 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -16704,27 +16704,27 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -16734,17 +16734,17 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -16754,12 +16754,12 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -16769,12 +16769,12 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="151" spans="1:1">
@@ -16784,7 +16784,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -16799,42 +16799,42 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -16844,57 +16844,57 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -16909,17 +16909,17 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -16944,22 +16944,22 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -16969,12 +16969,12 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -16989,12 +16989,12 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -17014,12 +17014,12 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="200" spans="1:1">
@@ -17029,22 +17029,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -17054,22 +17054,22 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -17079,27 +17079,27 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -17109,12 +17109,12 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -17124,27 +17124,27 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -17154,7 +17154,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -17169,42 +17169,42 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -17214,52 +17214,52 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -17269,17 +17269,17 @@
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -17289,22 +17289,22 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="257" spans="1:1">
@@ -17314,22 +17314,22 @@
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="262" spans="1:1">
@@ -17339,62 +17339,62 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -17419,32 +17419,32 @@
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -17454,52 +17454,52 @@
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -17509,7 +17509,7 @@
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="298" spans="1:1">
@@ -17551,12 +17551,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -17566,7 +17566,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -17586,7 +17586,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -17596,7 +17596,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -17641,7 +17641,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -17651,7 +17651,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -17661,17 +17661,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -17691,7 +17691,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -17706,12 +17706,12 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -17736,7 +17736,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -17746,7 +17746,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -17761,17 +17761,17 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -17791,7 +17791,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -17801,7 +17801,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -17821,12 +17821,12 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -17836,7 +17836,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -17856,7 +17856,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -17871,7 +17871,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -17881,12 +17881,12 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -17896,12 +17896,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -17911,7 +17911,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -17921,7 +17921,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -17941,27 +17941,27 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -17981,7 +17981,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -17996,7 +17996,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -18006,12 +18006,12 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -18021,7 +18021,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -18036,7 +18036,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -18051,7 +18051,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -18061,7 +18061,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -18091,12 +18091,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -18131,7 +18131,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -18141,7 +18141,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -18166,7 +18166,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -18176,12 +18176,12 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -18191,7 +18191,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -18206,7 +18206,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -18226,7 +18226,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -18241,7 +18241,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -18276,7 +18276,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -18326,7 +18326,7 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -18346,7 +18346,7 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -18366,7 +18366,7 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -18396,12 +18396,12 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -18411,7 +18411,7 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -18436,7 +18436,7 @@
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -18471,7 +18471,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -18481,7 +18481,7 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -18491,12 +18491,12 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -18511,12 +18511,12 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -18551,22 +18551,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -18576,7 +18576,7 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -18601,12 +18601,12 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -18636,7 +18636,7 @@
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -18656,17 +18656,17 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -18676,7 +18676,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -18691,12 +18691,12 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -18706,7 +18706,7 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="233" spans="1:1">
@@ -18736,17 +18736,17 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -18771,12 +18771,12 @@
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -18796,12 +18796,12 @@
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -18811,7 +18811,7 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="254" spans="1:1">
@@ -18821,7 +18821,7 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -18841,7 +18841,7 @@
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -18861,7 +18861,7 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="264" spans="1:1">
@@ -18876,7 +18876,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -18886,12 +18886,12 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="270" spans="1:1">
@@ -18901,7 +18901,7 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -18916,7 +18916,7 @@
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -18956,17 +18956,17 @@
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -18981,17 +18981,17 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="290" spans="1:1">
@@ -19001,7 +19001,7 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="292" spans="1:1">
@@ -19021,7 +19021,7 @@
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -19073,12 +19073,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -19088,7 +19088,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -19108,7 +19108,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -19118,7 +19118,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -19163,7 +19163,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -19173,7 +19173,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -19183,17 +19183,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -19213,7 +19213,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -19228,12 +19228,12 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -19258,7 +19258,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -19268,7 +19268,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -19283,22 +19283,22 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -19313,7 +19313,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -19323,7 +19323,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -19338,17 +19338,17 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -19358,7 +19358,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -19378,7 +19378,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -19393,7 +19393,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -19403,12 +19403,12 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -19418,12 +19418,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -19433,7 +19433,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -19443,7 +19443,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -19463,27 +19463,27 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -19503,7 +19503,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -19518,7 +19518,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -19528,12 +19528,12 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -19543,7 +19543,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -19558,7 +19558,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -19573,7 +19573,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -19583,7 +19583,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -19613,12 +19613,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -19653,7 +19653,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -19663,7 +19663,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -19688,7 +19688,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -19698,12 +19698,12 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -19713,7 +19713,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -19728,7 +19728,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -19748,7 +19748,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -19758,12 +19758,12 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -19798,7 +19798,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -19848,7 +19848,7 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -19868,7 +19868,7 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -19888,7 +19888,7 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -19918,12 +19918,12 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -19933,7 +19933,7 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -19958,7 +19958,7 @@
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -19993,7 +19993,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -20003,7 +20003,7 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -20013,12 +20013,12 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -20033,12 +20033,12 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -20073,22 +20073,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -20098,7 +20098,7 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -20123,12 +20123,12 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -20158,7 +20158,7 @@
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -20178,17 +20178,17 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -20198,7 +20198,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -20213,12 +20213,12 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -20228,7 +20228,7 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="233" spans="1:1">
@@ -20258,17 +20258,17 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -20293,12 +20293,12 @@
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -20318,12 +20318,12 @@
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -20333,7 +20333,7 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="254" spans="1:1">
@@ -20343,7 +20343,7 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -20363,7 +20363,7 @@
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -20383,7 +20383,7 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="264" spans="1:1">
@@ -20398,7 +20398,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -20408,12 +20408,12 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="270" spans="1:1">
@@ -20423,7 +20423,7 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -20438,7 +20438,7 @@
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -20478,17 +20478,17 @@
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -20503,17 +20503,17 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="290" spans="1:1">
@@ -20523,7 +20523,7 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="292" spans="1:1">
@@ -20543,7 +20543,7 @@
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -20595,12 +20595,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -20610,7 +20610,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -20630,7 +20630,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -20640,7 +20640,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -20685,7 +20685,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -20695,7 +20695,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -20705,17 +20705,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -20735,7 +20735,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -20750,12 +20750,12 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -20780,7 +20780,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -20790,7 +20790,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -20805,22 +20805,22 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -20835,7 +20835,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -20845,7 +20845,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -20865,12 +20865,12 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -20880,7 +20880,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -20900,7 +20900,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -20915,7 +20915,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -20925,12 +20925,12 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -20940,12 +20940,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -20955,7 +20955,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -20965,7 +20965,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -20985,27 +20985,27 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -21025,7 +21025,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -21040,7 +21040,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -21050,12 +21050,12 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -21065,7 +21065,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -21080,7 +21080,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -21095,7 +21095,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -21105,7 +21105,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -21135,12 +21135,12 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -21175,7 +21175,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -21185,7 +21185,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -21210,7 +21210,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -21220,12 +21220,12 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -21235,7 +21235,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -21250,7 +21250,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -21270,7 +21270,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -21285,7 +21285,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -21320,7 +21320,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -21370,7 +21370,7 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -21390,7 +21390,7 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -21410,7 +21410,7 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -21440,12 +21440,12 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -21455,7 +21455,7 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -21480,7 +21480,7 @@
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -21515,7 +21515,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -21525,7 +21525,7 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -21535,12 +21535,12 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -21555,12 +21555,12 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -21595,22 +21595,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -21620,7 +21620,7 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -21645,12 +21645,12 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -21680,7 +21680,7 @@
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -21690,7 +21690,7 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="221" spans="1:1">
@@ -21700,17 +21700,17 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -21720,7 +21720,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -21735,12 +21735,12 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -21750,7 +21750,7 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="233" spans="1:1">
@@ -21780,17 +21780,17 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -21815,12 +21815,12 @@
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="247" spans="1:1">
@@ -21840,12 +21840,12 @@
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -21855,7 +21855,7 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="254" spans="1:1">
@@ -21865,7 +21865,7 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -21885,7 +21885,7 @@
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -21905,7 +21905,7 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="264" spans="1:1">
@@ -21920,7 +21920,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -21930,12 +21930,12 @@
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="270" spans="1:1">
@@ -21945,7 +21945,7 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -21960,7 +21960,7 @@
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -22000,17 +22000,17 @@
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -22025,17 +22025,17 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="290" spans="1:1">
@@ -22045,7 +22045,7 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="292" spans="1:1">
@@ -22065,7 +22065,7 @@
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -22122,7 +22122,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>912</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -22132,12 +22132,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -22147,22 +22147,22 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -22177,27 +22177,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -22207,17 +22207,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -22227,17 +22227,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -22257,37 +22257,37 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -22297,12 +22297,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -22312,117 +22312,117 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -22437,22 +22437,22 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -22462,72 +22462,72 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -22547,7 +22547,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -22557,42 +22557,42 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -22602,67 +22602,67 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -22672,17 +22672,17 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -22692,32 +22692,32 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -22727,52 +22727,52 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -22792,27 +22792,27 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -22822,17 +22822,17 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -22842,12 +22842,12 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -22857,12 +22857,12 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="151" spans="1:1">
@@ -22872,7 +22872,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -22887,42 +22887,42 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -22932,57 +22932,57 @@
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -22997,17 +22997,17 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -23032,22 +23032,22 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -23057,12 +23057,12 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -23077,12 +23077,12 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -23102,12 +23102,12 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="200" spans="1:1">
@@ -23117,22 +23117,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -23142,22 +23142,22 @@
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -23167,27 +23167,27 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -23197,12 +23197,12 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -23212,27 +23212,27 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -23242,7 +23242,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -23257,42 +23257,42 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -23302,52 +23302,52 @@
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -23357,17 +23357,17 @@
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -23377,22 +23377,22 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="257" spans="1:1">
@@ -23402,22 +23402,22 @@
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="262" spans="1:1">
@@ -23427,62 +23427,62 @@
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -23507,32 +23507,32 @@
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -23542,52 +23542,52 @@
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -23597,7 +23597,7 @@
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="298" spans="1:1">
